--- a/заказы/статистика филиалы/2023/09,23/29,09,23 ЗПФ/дв 29,09,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/09,23/29,09,23 ЗПФ/дв 29,09,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\29,09,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\09,23\29,09,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537BB858-6B11-4639-92B8-DBFCCA29FFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2636870-358D-4684-A092-6114182A8205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,10 +235,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2777,7 +2781,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -2791,7 +2795,7 @@
     <col min="10" max="12" width="8" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="2"/>
     <col min="14" max="15" width="1.6640625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="7.1640625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="6.1640625" style="2" customWidth="1"/>
     <col min="18" max="20" width="7.6640625" style="2" customWidth="1"/>
     <col min="21" max="22" width="10.5" style="2"/>
     <col min="23" max="24" width="1.6640625" style="2" customWidth="1"/>
@@ -3191,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="Z7" s="20">
-        <f t="shared" ref="Z7:Z34" si="7">M7/Y7</f>
+        <f t="shared" ref="Z7:Z33" si="7">M7/Y7</f>
         <v>0</v>
       </c>
       <c r="AA7" s="2">
